--- a/consumerGoodsReturns.xlsx
+++ b/consumerGoodsReturns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/fpeds_alex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8199684-7B3C-1D40-B586-7BCFFB90656B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF9280-6701-C34E-AD1B-8E7480B797D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2320" windowWidth="27240" windowHeight="15940" xr2:uid="{5FD72E3C-16B4-E848-93E7-DEF0301E8904}"/>
+    <workbookView xWindow="25880" yWindow="3400" windowWidth="27240" windowHeight="15940" activeTab="3" xr2:uid="{5FD72E3C-16B4-E848-93E7-DEF0301E8904}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D88EAF-3445-E54C-842B-65850D541544}">
   <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2390,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F78CCA-3377-374B-8545-EC5334AF51E4}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3351,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C47E0E0-51E9-5043-AD49-1D45101A5644}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C86"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4312,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F4AA65-76AA-D248-94DA-9332F3AF55B9}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5251,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FEB57E-AE0E-9446-BC02-64AFF038162A}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C86"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
